--- a/کلر/کلر.xlsx
+++ b/کلر/کلر.xlsx
@@ -202,9 +202,6 @@
     <t>99/01/11</t>
   </si>
   <si>
-    <t>سیو سود به دلیل نزدیکی شاخص کل به مقاومت</t>
-  </si>
-  <si>
     <t>middle</t>
   </si>
   <si>
@@ -231,6 +228,9 @@
   </si>
   <si>
     <t>-</t>
+  </si>
+  <si>
+    <t>متعادل شدن صف</t>
   </si>
 </sst>
 </file>
@@ -1520,26 +1520,30 @@
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
+      <sheetName val="پرتفوی"/>
+      <sheetName val="سرمایه"/>
+      <sheetName val="بازدهی ماهانه"/>
+      <sheetName val="واریز و برداشت"/>
       <sheetName val="مدیریت سرمایه"/>
-      <sheetName val="محاسبه مدیریت سرمایه"/>
-      <sheetName val="پرتفوی"/>
-      <sheetName val="تحلیل"/>
-      <sheetName val="تاریخچه خرید"/>
-      <sheetName val="تاریخچه فروش"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="5">
-          <cell r="B5">
-            <v>1466894651</v>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1">
+        <row r="4">
+          <cell r="F4">
+            <v>626812450</v>
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="1"/>
       <sheetData sheetId="2"/>
       <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5"/>
+      <sheetData sheetId="4">
+        <row r="5">
+          <cell r="B5">
+            <v>111522902.50683086</v>
+          </cell>
+        </row>
+      </sheetData>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1836,7 +1840,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M6" sqref="M6"/>
+      <selection pane="bottomLeft" activeCell="P4" sqref="P4:P5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1982,23 +1986,23 @@
       </c>
       <c r="N4" s="31">
         <f>R4*Q4</f>
-        <v>1137074</v>
+        <v>0</v>
       </c>
       <c r="O4" s="32" t="str">
         <f>IF( (Q4-M4)*R4/P4&gt;0, (Q4-M4)*R4/P4, "Risk free")</f>
         <v>Risk free</v>
       </c>
       <c r="P4" s="33">
-        <f>'[1]مدیریت سرمایه'!$B$5</f>
-        <v>1466894651</v>
+        <f>[1]سرمایه!$F$4</f>
+        <v>626812450</v>
       </c>
       <c r="Q4" s="33">
-        <f>(SUM('تاریخچه خرید'!M4:M17)-SUMPRODUCT('تاریخچه فروش'!G4:G7*'تاریخچه فروش'!F4:F7))/R4</f>
-        <v>29923</v>
+        <f>IF(R4&gt;0, (SUM('تاریخچه خرید'!M4:M17)-SUMPRODUCT('تاریخچه فروش'!G4:G7*'تاریخچه فروش'!F4:F7))/R4, 1)</f>
+        <v>1</v>
       </c>
       <c r="R4" s="35">
         <f>SUM('تاریخچه خرید'!Q4:Q17)-SUM('تاریخچه فروش'!G4:G11)</f>
-        <v>38</v>
+        <v>0</v>
       </c>
       <c r="S4" s="30" t="s">
         <v>41</v>
@@ -2183,7 +2187,7 @@
     <row r="4" spans="1:20" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="22"/>
       <c r="B4" s="75" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C4" s="90" t="s">
         <v>52</v>
@@ -2192,16 +2196,16 @@
         <v>42</v>
       </c>
       <c r="E4" s="93" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F4" s="74" t="s">
         <v>55</v>
       </c>
       <c r="G4" s="84" t="s">
+        <v>61</v>
+      </c>
+      <c r="H4" s="95" t="s">
         <v>62</v>
-      </c>
-      <c r="H4" s="95" t="s">
-        <v>63</v>
       </c>
       <c r="I4" s="80" t="s">
         <v>42</v>
@@ -2210,7 +2214,7 @@
         <v>42</v>
       </c>
       <c r="K4" s="70" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="L4" s="72">
         <v>4869</v>
@@ -2225,19 +2229,19 @@
         <v>42</v>
       </c>
       <c r="P4" s="64" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="Q4" s="66" t="s">
         <v>57</v>
       </c>
       <c r="R4" s="84" t="s">
+        <v>65</v>
+      </c>
+      <c r="S4" s="53" t="s">
         <v>66</v>
       </c>
-      <c r="S4" s="53" t="s">
+      <c r="T4" s="88" t="s">
         <v>67</v>
-      </c>
-      <c r="T4" s="88" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="5" spans="1:20" ht="17.399999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -2751,7 +2755,7 @@
   <dimension ref="B1:T21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L6" sqref="L6:L7"/>
+      <selection activeCell="O4" sqref="O4:O5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2907,7 +2911,7 @@
       </c>
       <c r="O4" s="33">
         <f>'[1]مدیریت سرمایه'!$B$5</f>
-        <v>1466894651</v>
+        <v>111522902.50683086</v>
       </c>
       <c r="P4" s="157">
         <v>29923</v>
@@ -2916,13 +2920,13 @@
         <v>38</v>
       </c>
       <c r="R4" s="84" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="S4" s="95" t="s">
         <v>43</v>
       </c>
       <c r="T4" s="30" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="5" spans="2:20" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -3427,28 +3431,28 @@
     <row r="4" spans="2:10" ht="17.399999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B4" s="164">
         <f>D4-(F4*G4)</f>
-        <v>0</v>
+        <v>1997546</v>
       </c>
       <c r="C4" s="165">
         <f>E4/F4-1</f>
-        <v>0.20505569091541953</v>
+        <v>1.7567423052501421</v>
       </c>
       <c r="D4" s="164">
         <f>E4*G4</f>
-        <v>0</v>
+        <v>3134620</v>
       </c>
       <c r="E4" s="166">
-        <v>55394</v>
+        <v>82490</v>
       </c>
       <c r="F4" s="171">
-        <v>45968</v>
+        <v>29923</v>
       </c>
       <c r="G4" s="167">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="H4" s="160"/>
       <c r="I4" s="175" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="J4" s="167" t="s">
         <v>59</v>
